--- a/biology/Neurosciences/Circonvolution_cérébrale/Circonvolution_cérébrale.xlsx
+++ b/biology/Neurosciences/Circonvolution_cérébrale/Circonvolution_cérébrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Circonvolution_c%C3%A9r%C3%A9brale</t>
+          <t>Circonvolution_cérébrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une circonvolution cérébrale ou gyrus est un ensemble de replis sinueux du cortex cérébral, délimités par des sillons plus profonds ou constants qui marquent, chez les mammifères, la surface du cerveau.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Circonvolution_c%C3%A9r%C3%A9brale</t>
+          <t>Circonvolution_cérébrale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Histoire et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme scientifique gyrus vient du latin gyrus « cercle », venant lui-même du grec γυ̃ρος « cercle ».
 Le pluriel du terme latin est gyri mais la forme plurielle gyrus en français est très courante et légitime dans la mesure où le terme n'est plus considéré comme du latin scientifique mais est inclus dans le lexique français.
 À la Renaissance, les plissements du cerveau étaient comparés à un enchevêtrement de macaronis, et ce n'est qu'au XIXe siècle que les anatomistes commencèrent à reconnaître à la surface du cortex les figures constantes formées par les lobes et les circonvolutions. L'anatomiste Louis Pierre Gratiolet (1815-1865) fut un des premiers à les décrire et les nommer. Sa nomenclature est encore utilisée actuellement.
-L'avènement de l'imagerie cérébrale à la fin du XXe a permis à la neuroanatomie descriptive de devenir la langue commune des neurosciences cognitives (Houdé et als[1], 2002).
+L'avènement de l'imagerie cérébrale à la fin du XXe a permis à la neuroanatomie descriptive de devenir la langue commune des neurosciences cognitives (Houdé et als, 2002).
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Circonvolution_c%C3%A9r%C3%A9brale</t>
+          <t>Circonvolution_cérébrale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>La délimitation des circonvolutions par les sillons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une caractéristique évolutive majeure des mammifères est le développement extraordinaire du cortex cérébral. Le cortex le plus récent sur le plan de l'évolution (ou néocortex) n'est qu'à l'état d'ébauche chez les reptiles et n'est encore qu'une couche lisse et mince chez les oiseaux. Le cortex des mammifères rongeurs (rats, souris) est encore lisse mais l'augmentation notable de sa surface à l'intérieur de la boîte crânienne l'oblige à former des plis chez les carnivores (chiens, chats). Avec l'espèce humaine, le cortex préfrontal connaît un développement relatif remarquable. La surface totale du cortex humain atteint alors environ 2 200 cm2 alors qu'elle n'est que de 490 cm2 chez le chimpanzé.
-La topologie fine des dépressions du cortex humain est très variable d'un individu à l'autre mais il est possible d'identifier des figures constantes se retrouvant chez tous les sujets[2], capables de caractériser les sillons cérébraux. Ce sont ces sillons constants qui serviront à définir une parcellisation des hémisphères en lobes et en gyri.
-C'est donc en partant de la définition des principaux sillons qu'on peut délimiter les circonvolutions ou gyri (voir l'article sillons). La présentation ci-dessous est inspirée de Houdé et als[1].
+La topologie fine des dépressions du cortex humain est très variable d'un individu à l'autre mais il est possible d'identifier des figures constantes se retrouvant chez tous les sujets, capables de caractériser les sillons cérébraux. Ce sont ces sillons constants qui serviront à définir une parcellisation des hémisphères en lobes et en gyri.
+C'est donc en partant de la définition des principaux sillons qu'on peut délimiter les circonvolutions ou gyri (voir l'article sillons). La présentation ci-dessous est inspirée de Houdé et als.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Circonvolution_c%C3%A9r%C3%A9brale</t>
+          <t>Circonvolution_cérébrale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Gyrus du lobe frontal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le lobe frontal est divisé en cinq gyri principaux, un vertical, le long du sillon de Rolando, trois longitudinaux et antéro-postérieurs et un sur la face inférieure :
 le gyrus précentral est un ruban vertical délimité par le sillon précentral en avant et le sillon central (de Rolando) en arrière. Il correspond à l'aire motrice (aire 4 de Brodmann) ;
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Circonvolution_c%C3%A9r%C3%A9brale</t>
+          <t>Circonvolution_cérébrale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Gyrus du lobe pariétal</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le lobe pariétal est divisé en quatre parties, un gyrus vertical, deux lobules longitudinaux, sur la face externe de l'hémisphère et un gyrus sur la face interne, de faible étendue :
 le gyrus postcentral est un ruban vertical délimité en avant par le sillon central et en arrière par le sillon postcentral. Il correspond aux aires somatosensorielles. Ce gyrus s'unit au gyrus précentral par deux plis de passage :
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Circonvolution_c%C3%A9r%C3%A9brale</t>
+          <t>Circonvolution_cérébrale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,7 +671,9 @@
           <t>Gyrus du lobe occipital</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le lobe occipital a la forme d'une pyramide triangulaire dont un sommet est dirigé vers l'arrière, centré sur le pôle occipital. Il est divisé en six parties :
 le gyrus occipital supérieur O1 (fig. 1), sur la face externe, est limité latéralement par le sillon intra-occipital ;
@@ -669,7 +691,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Circonvolution_c%C3%A9r%C3%A9brale</t>
+          <t>Circonvolution_cérébrale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -687,7 +709,9 @@
           <t>Gyrus du lobe temporal</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le lobe temporal présente deux faces, l'une externe divisée en trois gyrus, une autre inférieure :
 le gyrus temporal supérieur T1 (fig. 1), situé sur la lèvre inférieure du sillon latéral, limité en bas par le sillon temporal supérieur et se prolongeant en arrière avec le lobule pariétal inférieur ;
@@ -707,7 +731,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Circonvolution_c%C3%A9r%C3%A9brale</t>
+          <t>Circonvolution_cérébrale</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -725,7 +749,9 @@
           <t>Gyrus du lobe limbique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le lobe limbique traite les informations émotionnelles et végétatives. Il est divisé dans les régions suivantes :
 le gyrus cingulaire (fig. 2) situé sur la face interne de l'hémisphère, et entourant par-dessus le corps calleux et dans sa partie antérieure, en dessous du sillon cingulaire ;
@@ -740,7 +766,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Circonvolution_c%C3%A9r%C3%A9brale</t>
+          <t>Circonvolution_cérébrale</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -758,7 +784,9 @@
           <t>Gyrus du lobe de l'insula</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>L'insula est la partie du cortex située dans la profondeur de la scissure latérale et entièrement recouverte par les lobes frontal, pariétal et temporal.
 La partie antérieure du lobe de l'insula joue un rôle dans la production du langage et sa partie postérieure contient des aires somatosensorielles secondaires intégrant des informations en provenance de différentes modalités.
